--- a/data/1-in-4-Ending-Humanity.xlsx
+++ b/data/1-in-4-Ending-Humanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/636f8a572b340079/Documents/CMU/Interactive_data_science/fp--05839-abby-jeff-kyle-will/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{2E36666D-DCF1-4C9A-926E-37CE9F9EA58B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{797A3986-9CF1-407B-A5AC-10B16E3FC44B}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{2E36666D-DCF1-4C9A-926E-37CE9F9EA58B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DE242DAE-AC37-45B1-8B1D-979A1EF466F6}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{659003C9-838E-4933-9015-65C8C2423EA3}"/>
   </bookViews>
@@ -141,9 +141,6 @@
     <t>Pursue Advancement</t>
   </si>
   <si>
-    <t xml:space="preserve">Age </t>
-  </si>
-  <si>
     <t>Gender at Birth</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>Device</t>
+  </si>
+  <si>
+    <t>Age Range</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:O407"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,19 +535,19 @@
         <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
